--- a/templates/dataplant/MIAPPE/MIAPPE_-_Biological_material.xlsx
+++ b/templates/dataplant/MIAPPE/MIAPPE_-_Biological_material.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,13 +32,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Template to describe the biological material and observation unit according to MIAPPE v.1.1.</t>
+    <t>Template to describe the biological material according to MIAPPE v.1.1.</t>
   </si>
   <si>
     <t>Organisation</t>
@@ -77,7 +77,7 @@
     <t>Biological Material</t>
   </si>
   <si>
-    <t>Observation Unit</t>
+    <t>plant material</t>
   </si>
   <si>
     <t>Tags Term Accession Number</t>
@@ -86,12 +86,15 @@
     <t>http://purl.obolibrary.org/obo/MIAPPE_0039</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/MIAPPE_0069</t>
+    <t>http://purl.obolibrary.org/obo/FOODON_00004331</t>
   </si>
   <si>
     <t>Tags Term Source REF</t>
   </si>
   <si>
+    <t>FOODON</t>
+  </si>
+  <si>
     <t>AUTHORS</t>
   </si>
   <si>
@@ -311,33 +314,6 @@
     <t>Term Accession Number (MIAPPE:0056)</t>
   </si>
   <si>
-    <t>Characteristic [Observation unit type]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0071)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0071)</t>
-  </si>
-  <si>
-    <t>Characteristic [External ID]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0072)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0072)</t>
-  </si>
-  <si>
-    <t>Characteristic [Spatial distribution]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MIAPPE:0073)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MIAPPE:0073)</t>
-  </si>
-  <si>
     <t>Output [Sample Name]</t>
   </si>
   <si>
@@ -374,7 +350,7 @@
     <t>UO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000008</t>
+    <t>https://bioregistry.io/UO:0000008</t>
   </si>
   <si>
     <t>200 m</t>
@@ -390,15 +366,6 @@
   </si>
   <si>
     <t>Branches were collected from a 10-year-old tree growing in a progeny trial established in a loamy brown earth soil.</t>
-  </si>
-  <si>
-    <t>plot</t>
-  </si>
-  <si>
-    <t>Biosamples:SAMEA4202911</t>
-  </si>
-  <si>
-    <t>latitude:+2.341; row:4 ; X:3; Y:6; Xm:35; Ym:65; block:1; plot:894</t>
   </si>
   <si>
     <t>CEA:BE00034067</t>
@@ -457,8 +424,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:BI2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:BI2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:AZ2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:AZ2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -511,17 +478,8 @@
     <filterColumn colId="49" hiddenButton="1"/>
     <filterColumn colId="50" hiddenButton="1"/>
     <filterColumn colId="51" hiddenButton="1"/>
-    <filterColumn colId="52" hiddenButton="1"/>
-    <filterColumn colId="53" hiddenButton="1"/>
-    <filterColumn colId="54" hiddenButton="1"/>
-    <filterColumn colId="55" hiddenButton="1"/>
-    <filterColumn colId="56" hiddenButton="1"/>
-    <filterColumn colId="57" hiddenButton="1"/>
-    <filterColumn colId="58" hiddenButton="1"/>
-    <filterColumn colId="59" hiddenButton="1"/>
-    <filterColumn colId="60" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="61">
+  <tableColumns count="52">
     <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Characteristic [Organism]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (MIAPPE:0041)" totalsRowFunction="none"/>
@@ -573,16 +531,7 @@
     <tableColumn id="49" name="Characteristic [Material source description]" totalsRowFunction="none"/>
     <tableColumn id="50" name="Term Source REF (MIAPPE:0056)" totalsRowFunction="none"/>
     <tableColumn id="51" name="Term Accession Number (MIAPPE:0056)" totalsRowFunction="none"/>
-    <tableColumn id="52" name="Characteristic [Observation unit type]" totalsRowFunction="none"/>
-    <tableColumn id="53" name="Term Source REF (MIAPPE:0071)" totalsRowFunction="none"/>
-    <tableColumn id="54" name="Term Accession Number (MIAPPE:0071)" totalsRowFunction="none"/>
-    <tableColumn id="55" name="Characteristic [External ID]" totalsRowFunction="none"/>
-    <tableColumn id="56" name="Term Source REF (MIAPPE:0072)" totalsRowFunction="none"/>
-    <tableColumn id="57" name="Term Accession Number (MIAPPE:0072)" totalsRowFunction="none"/>
-    <tableColumn id="58" name="Characteristic [Spatial distribution]" totalsRowFunction="none"/>
-    <tableColumn id="59" name="Term Source REF (MIAPPE:0073)" totalsRowFunction="none"/>
-    <tableColumn id="60" name="Term Accession Number (MIAPPE:0073)" totalsRowFunction="none"/>
-    <tableColumn id="61" name="Output [Sample Name]" totalsRowFunction="none"/>
+    <tableColumn id="52" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -991,105 +940,108 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1100,377 +1052,323 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AQ1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AR1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AT1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AU1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AV1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AW1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AX1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AY1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AZ1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BA1" t="s">
         <v>100</v>
       </c>
-      <c r="BB1" t="s">
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>101</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="BD1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BE1" t="s">
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
         <v>104</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
         <v>105</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
         <v>106</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" t="s">
         <v>107</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="O2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="R2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="U2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" t="s">
+      <c r="V2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
+      <c r="W2" t="s">
+        <v>112</v>
+      </c>
+      <c r="X2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR2" t="s">
         <v>111</v>
       </c>
-      <c r="E2" t="s">
+      <c r="AS2" t="s">
         <v>112</v>
       </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="AT2" t="s">
         <v>113</v>
       </c>
-      <c r="I2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" t="s">
-        <v>111</v>
-      </c>
-      <c r="P2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>116</v>
-      </c>
-      <c r="R2" t="s">
-        <v>111</v>
-      </c>
-      <c r="S2" t="s">
-        <v>111</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AU2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AW2" t="s">
         <v>117</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AX2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>118</v>
-      </c>
-      <c r="V2" t="s">
-        <v>119</v>
-      </c>
-      <c r="W2" t="s">
-        <v>120</v>
-      </c>
-      <c r="X2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
